--- a/data/trans_bre/P1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.543875516632776</v>
+        <v>-4.263463517602231</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3799147276550351</v>
+        <v>0.1722183240036866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.611388275539835</v>
+        <v>-3.691432744513376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.907752679030973</v>
+        <v>-7.210385760433889</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8153128565010743</v>
+        <v>-0.777588133628013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.04565472022958279</v>
+        <v>-0.05744724944637412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3931658245497791</v>
+        <v>-0.4316904324060868</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7090186206935998</v>
+        <v>-0.7339470575777362</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.05000339636919369</v>
+        <v>0.09366518094725053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.049339504637775</v>
+        <v>4.763032115040073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.956078800581551</v>
+        <v>3.679434046050257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.65241321648132</v>
+        <v>2.598769289616651</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06423242709469343</v>
+        <v>0.1426478569625752</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.836626204356142</v>
+        <v>6.352446307520872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7552244228824477</v>
+        <v>0.6847350329212817</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8555223070217177</v>
+        <v>0.7866648354409461</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.187150153462496</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.11527010077101</v>
+        <v>-7.115270100771013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4441225676570361</v>
@@ -749,7 +749,7 @@
         <v>-0.3008722610252959</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4477512867673774</v>
+        <v>-0.4477512867673775</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.85709313573291</v>
+        <v>-5.616377431112729</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.266786991921007</v>
+        <v>-8.303222462390979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.287667260064817</v>
+        <v>-6.566032909157718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.40688513971718</v>
+        <v>-12.32488669376058</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6763368364106321</v>
+        <v>-0.654372094772844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7042571478946261</v>
+        <v>-0.7122906822704078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5156905104011996</v>
+        <v>-0.5216632582490932</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6355032491313564</v>
+        <v>-0.626552851821196</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.7062247729988012</v>
+        <v>-0.7688541546692309</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.412689326151094</v>
+        <v>-2.298248464453567</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1133824490381146</v>
+        <v>0.1733654956138502</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.351018028705478</v>
+        <v>-2.391635355703455</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.103008387355305</v>
+        <v>-0.08564250305868626</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2689235672338502</v>
+        <v>-0.2802384891581048</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01421249901798299</v>
+        <v>0.02744980053985094</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1798535039817077</v>
+        <v>-0.1592992033535954</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.474516577046003</v>
+        <v>-6.516291150094519</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.907746418046115</v>
+        <v>-5.090422824110806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.458311240866527</v>
+        <v>-9.534956844868873</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.81444906825149</v>
+        <v>-13.53546412175131</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8333632059364503</v>
+        <v>-0.8328000841842382</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8477360762705759</v>
+        <v>-0.8383863631062363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7441387011448649</v>
+        <v>-0.7409898613215282</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7509326649315085</v>
+        <v>-0.7482676106071452</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.923923315880094</v>
+        <v>-1.835697546359414</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.242044586029492</v>
+        <v>-1.196430323297804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.578172646431579</v>
+        <v>-3.53285365924749</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-6.654648720271592</v>
+        <v>-6.456378361693934</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.3773179545320583</v>
+        <v>-0.3754710006038646</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.2794726465942401</v>
+        <v>-0.2818346860360431</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.384232122915967</v>
+        <v>-0.3720526191912734</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.4898946594679898</v>
+        <v>-0.4835490953803596</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-7.437918399767163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-13.25004738324191</v>
+        <v>-13.2500473832419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.213228967422906</v>
@@ -949,7 +949,7 @@
         <v>-0.5760024576365859</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.6413114645679084</v>
+        <v>-0.6413114645679082</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.260297355736816</v>
+        <v>-4.547172717543377</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.250376122077727</v>
+        <v>-6.795301741770392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.71636088093963</v>
+        <v>-10.74038214225531</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-16.80493964766593</v>
+        <v>-16.70936021741523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5378680469983946</v>
+        <v>-0.5829192790989947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6906765562671626</v>
+        <v>-0.6616237705972641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7212909250429257</v>
+        <v>-0.7232814894106061</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7230885391726362</v>
+        <v>-0.720758660543367</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.746081790535969</v>
+        <v>1.57642579842622</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.07618094300996</v>
+        <v>-1.010289237419121</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-4.192599060929028</v>
+        <v>-3.999290609879</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-9.717787593104866</v>
+        <v>-9.732452129374392</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4354854948469564</v>
+        <v>0.3479200294435431</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1292019997065355</v>
+        <v>-0.134397900680761</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3610135257574357</v>
+        <v>-0.3550156455724801</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.5329445626895698</v>
+        <v>-0.5342812992668562</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.721183174366818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-3.117239193817578</v>
+        <v>-3.117239193817575</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2617505214184914</v>
@@ -1049,7 +1049,7 @@
         <v>0.3208880225040473</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1569350532027723</v>
+        <v>-0.1569350532027721</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.915964668415532</v>
+        <v>-2.046799828002681</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.160431153269386</v>
+        <v>-2.30346188427434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.830530905972287</v>
+        <v>-0.6594580114372502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.840636974439922</v>
+        <v>-6.621456578084382</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2332235467556643</v>
+        <v>-0.2434175627484416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2321967132871245</v>
+        <v>-0.2697894689111756</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06611064711415958</v>
+        <v>-0.05644676222159187</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3087033995780279</v>
+        <v>-0.3083466806768539</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.346104104720328</v>
+        <v>5.721269026854073</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.660246976543474</v>
+        <v>5.239740351794965</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.848246853839907</v>
+        <v>8.139856942277721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6884464583646779</v>
+        <v>0.3516084633725252</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.053970275701196</v>
+        <v>1.165864792698398</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.146119775468298</v>
+        <v>0.9145697231799577</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9365586832488707</v>
+        <v>0.870893962635684</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.04159210496044333</v>
+        <v>0.02149619970825667</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.5576724987328924</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.51416971221945</v>
+        <v>0.5141697122194497</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.943926781128952</v>
+        <v>7.065046519383531</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.61602272257575</v>
+        <v>4.919676792899199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.310026540642351</v>
+        <v>2.689927297692631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.10673183709064</v>
+        <v>5.958830758854212</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5670633584663145</v>
+        <v>0.5721273864744877</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.345008189387209</v>
+        <v>0.310938329847706</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.170707495917501</v>
+        <v>0.1429530318545632</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2461133527748654</v>
+        <v>0.2372395537838446</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.50423390651093</v>
+        <v>18.07579185146048</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.71456203529348</v>
+        <v>17.57813969197882</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.46557228307864</v>
+        <v>14.7834660151522</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15.66878971652016</v>
+        <v>15.40313236866916</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.600683043944007</v>
+        <v>2.668819202399258</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.862403451003024</v>
+        <v>1.882925445230101</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.244495288982645</v>
+        <v>1.144440201691266</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8230486418848317</v>
+        <v>0.8151106071931615</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>14.03697329023956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25.09596354788449</v>
+        <v>25.09596354788448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6655362827653178</v>
@@ -1249,7 +1249,7 @@
         <v>0.5313055130594952</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.8130750672642032</v>
+        <v>0.8130750672642029</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.430938656097116</v>
+        <v>6.051277919679595</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.666832150359128</v>
+        <v>6.439956381594376</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.693150719370293</v>
+        <v>6.592347509408063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19.47998236933428</v>
+        <v>19.45472559370842</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2287126008138185</v>
+        <v>0.2122206018113265</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2722537655677601</v>
+        <v>0.2225160122738926</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2274354936111081</v>
+        <v>0.2223494645448936</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.5572044935499554</v>
+        <v>0.5562875012646679</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.19444166779284</v>
+        <v>21.46136453018268</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.64186438605274</v>
+        <v>22.00504358042922</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.73401321012115</v>
+        <v>21.91436764898854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30.5921629830322</v>
+        <v>29.94309104420611</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.3381574582682</v>
+        <v>1.297184228753375</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.192161440990224</v>
+        <v>1.181939664924129</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9734912051099096</v>
+        <v>0.9631169514877463</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.134953316296887</v>
+        <v>1.097927018974586</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.6502590207420333</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.8313958987296671</v>
+        <v>-0.8313958987296644</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2031740480750256</v>
@@ -1349,7 +1349,7 @@
         <v>0.05180077244493558</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.04511873474860093</v>
+        <v>-0.04511873474860078</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2234740495155257</v>
+        <v>0.09027313245179173</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1614411506488396</v>
+        <v>0.0677320285027342</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.8802978337226798</v>
+        <v>-0.8377587109068135</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.603486102261205</v>
+        <v>-2.672319205965469</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0287499558705391</v>
+        <v>0.01049274760423651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01836805993703061</v>
+        <v>0.009131446273800999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06778387382792711</v>
+        <v>-0.06365226365062061</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1335914749027276</v>
+        <v>-0.1356882169516344</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.889445683929228</v>
+        <v>2.857894338493321</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.073194588030288</v>
+        <v>3.06217889631598</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.262405757348718</v>
+        <v>2.456079371797527</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.852982001506686</v>
+        <v>0.8749248510025809</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4376227047227954</v>
+        <v>0.4188376570583858</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3981142518220524</v>
+        <v>0.402661315562167</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1952430921044455</v>
+        <v>0.2114955907172255</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04839770249917334</v>
+        <v>0.05027019638621702</v>
       </c>
     </row>
     <row r="28">
